--- a/Notebook-Excel.xlsx
+++ b/Notebook-Excel.xlsx
@@ -1,94 +1,222 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jarrar\Desktop\Professional\DevOps\AmazonInvoice\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC7054F-C7A2-4F2D-949F-145F053EE91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Invoice" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Invoice" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Invoice'!$A$1:$I$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice!$A$1:$I$22</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>INVOICE</t>
+  </si>
+  <si>
+    <t>Invoice #:</t>
+  </si>
+  <si>
+    <t>060602</t>
+  </si>
+  <si>
+    <t>Invoice Date:</t>
+  </si>
+  <si>
+    <t>Thu, 02 Jun 2022</t>
+  </si>
+  <si>
+    <t>Total Payable:</t>
+  </si>
+  <si>
+    <t>Order #:</t>
+  </si>
+  <si>
+    <t>203-8817529-4563562</t>
+  </si>
+  <si>
+    <t>VAT:</t>
+  </si>
+  <si>
+    <t>GB412095527</t>
+  </si>
+  <si>
+    <t>Sold by:</t>
+  </si>
+  <si>
+    <t>Trademan Enterprise LTD</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Caelum Star Large Plastic Dust Sheets for Decorating 6 Pack - 3.6m x 3m x
+0.7mil (12ft x 10ft) - 17 Micron Thick, Save Time Decorating - Dust Sheet for
+Painting and Plastic Sheeting for Building Work
+ASIN: B09HXC3NL8</t>
+  </si>
+  <si>
+    <t>Sub Total</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Promotion</t>
+  </si>
+  <si>
+    <t>VAT 20%</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>BILL FROM</t>
+  </si>
+  <si>
+    <t>BILL TO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TRADEMAN ENTERPRISE LTD
+79 Asquith Road
+BIRMINGHAM, B82HP
+GB
+VAT # GB412095527</t>
+  </si>
+  <si>
+    <t>Caelum Star - Trademan Enterprise</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="mmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="22"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1" tint="0.249977111117893"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -106,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -134,28 +262,8 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.3499862666707358"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -186,166 +294,92 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="29">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -633,267 +667,288 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:F11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5" customWidth="1" style="4" min="1" max="1"/>
-    <col width="8.75" customWidth="1" style="4" min="2" max="2"/>
-    <col width="15.875" customWidth="1" style="4" min="3" max="3"/>
-    <col width="8.75" customWidth="1" style="4" min="4" max="5"/>
-    <col width="5.625" customWidth="1" style="4" min="6" max="6"/>
-    <col width="7" customWidth="1" style="4" min="7" max="7"/>
-    <col width="12.5" bestFit="1" customWidth="1" style="4" min="8" max="8"/>
-    <col width="22.5" bestFit="1" customWidth="1" style="4" min="9" max="9"/>
-    <col width="8.75" customWidth="1" style="4" min="10" max="16384"/>
+    <col min="1" max="1" width="5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="4" customWidth="1"/>
+    <col min="4" max="5" width="8.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="7" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.75" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" ht="7.5" customHeight="1">
-      <c r="D2" s="5" t="n"/>
-      <c r="E2" s="5" t="n"/>
-      <c r="F2" s="5" t="n"/>
-      <c r="G2" s="5" t="n"/>
-      <c r="H2" s="5" t="n"/>
-      <c r="I2" s="5" t="n"/>
-    </row>
-    <row r="5" ht="33" customHeight="1">
-      <c r="H5" s="10" t="n"/>
-      <c r="I5" s="10" t="inlineStr">
-        <is>
-          <t>INVOICE</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="19" t="inlineStr">
-        <is>
-          <t>BILL FROM
-TRADEMAN ENTERPRISE LTD
-79 Asquith Road
-BIRMINGHAM, B82HP
-GB
-VAT # GB412095527</t>
-        </is>
-      </c>
-      <c r="D6" s="20" t="inlineStr">
-        <is>
-          <t>Test Address</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>Invoice #:</t>
-        </is>
-      </c>
-      <c r="I6" s="17" t="inlineStr">
-        <is>
-          <t>060602</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>Invoice Date:</t>
-        </is>
-      </c>
-      <c r="I7" s="24" t="inlineStr">
-        <is>
-          <t>Thu, 02 Jun 2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>Total Payable:</t>
-        </is>
-      </c>
-      <c r="I8" s="25">
+    <row r="2" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="D5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="H6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="H7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="H8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="13">
         <f>I22</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>Order #:</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
-        <is>
-          <t>203-8817529-4563562</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>VAT:</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
-        <is>
-          <t>GB412095527</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="63" customHeight="1">
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>Sold by:</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
-        <is>
-          <t>Trademan Enterprise LTD</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="21.95" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B14" s="21" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="C14" s="26" t="n"/>
-      <c r="D14" s="26" t="n"/>
-      <c r="E14" s="26" t="n"/>
-      <c r="F14" s="27" t="n"/>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>QTY</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>PRICE</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="107.25" customHeight="1">
-      <c r="A15" s="6" t="n">
+        <v>35.849999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="H9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="H10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
         <v>1</v>
       </c>
-      <c r="B15" s="22" t="inlineStr">
-        <is>
-          <t>Caelum Star Large Plastic Dust Sheets for Decorating 6 Pack - 3.6m x 3m x
-0.7mil (12ft x 10ft) - 17 Micron Thick, Save Time Decorating - Dust Sheet for
-Painting and Plastic Sheeting for Building Work
-ASIN: B09HXC3NL8</t>
-        </is>
-      </c>
-      <c r="C15" s="26" t="n"/>
-      <c r="D15" s="26" t="n"/>
-      <c r="E15" s="26" t="n"/>
-      <c r="F15" s="27" t="n"/>
-      <c r="G15" s="7" t="n">
+      <c r="B15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="7">
         <v>3</v>
       </c>
-      <c r="H15" s="28" t="n">
+      <c r="H15" s="14">
         <v>11.95</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="15">
         <f>G15*H15</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="21.95" customHeight="1">
-      <c r="A16" s="6" t="n"/>
-      <c r="B16" s="23" t="n"/>
-      <c r="C16" s="26" t="n"/>
-      <c r="D16" s="26" t="n"/>
-      <c r="E16" s="26" t="n"/>
-      <c r="F16" s="27" t="n"/>
-      <c r="G16" s="7" t="n"/>
-      <c r="H16" s="8" t="n"/>
-      <c r="I16" s="9" t="n"/>
-    </row>
-    <row r="17" ht="21.95" customHeight="1">
-      <c r="A17" s="6" t="n"/>
-      <c r="B17" s="23" t="n"/>
-      <c r="C17" s="26" t="n"/>
-      <c r="D17" s="26" t="n"/>
-      <c r="E17" s="26" t="n"/>
-      <c r="F17" s="27" t="n"/>
-      <c r="G17" s="7" t="n"/>
-      <c r="H17" s="8" t="n"/>
-      <c r="I17" s="9" t="n"/>
-    </row>
-    <row r="18" ht="21.95" customHeight="1">
-      <c r="A18" s="18" t="inlineStr">
-        <is>
-          <t>Sub Total</t>
-        </is>
-      </c>
-      <c r="I18" s="30">
+        <v>35.849999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="16">
         <f>SUM(I15:I17)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="21.95" customHeight="1">
-      <c r="A19" s="18" t="inlineStr">
-        <is>
-          <t>Shipping</t>
-        </is>
-      </c>
-      <c r="I19" s="30" t="n">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="20" ht="21.95" customHeight="1">
-      <c r="A20" s="18" t="inlineStr">
-        <is>
-          <t>Promotion</t>
-        </is>
-      </c>
-      <c r="I20" s="30" t="n">
-        <v>-0.71</v>
-      </c>
-    </row>
-    <row r="21" ht="21.95" customHeight="1">
-      <c r="A21" s="18" t="inlineStr">
-        <is>
-          <t>VAT 20%</t>
-        </is>
-      </c>
-      <c r="I21" s="30">
+        <v>35.849999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="16">
         <f>(I18+I20)*20%</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="21.95" customHeight="1">
-      <c r="A22" s="18" t="inlineStr">
-        <is>
-          <t>Grand Total</t>
-        </is>
-      </c>
-      <c r="I22" s="31">
+        <v>7.169999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="17">
         <f>SUM(I18:I20)</f>
-        <v/>
+        <v>35.849999999999994</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A20:H20"/>
     <mergeCell ref="A22:H22"/>
     <mergeCell ref="A6:C11"/>
@@ -908,6 +963,6 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" scale="85"/>
+  <pageSetup scale="85" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>